--- a/evaluation_examples/examples/sheetcopilot/852527e8-1b97-466c-a12f-b6b095df59bc/9_WeeklySales_gt1.xlsx
+++ b/evaluation_examples/examples/sheetcopilot/852527e8-1b97-466c-a12f-b6b095df59bc/9_WeeklySales_gt1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\WeeklySales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujipqiu/Github/DesktopEnv/evaluation_examples/examples/sheetcopilot/852527e8-1b97-466c-a12f-b6b095df59bc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5F524-9983-46CA-9C1F-B794923B099C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3C1EE-AE37-2343-977D-19B9BE003834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9384" windowHeight="12360" xr2:uid="{DE390B0A-21FB-4DF8-A5FD-D7DBCB15459B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="11560" windowHeight="12360" xr2:uid="{DE390B0A-21FB-4DF8-A5FD-D7DBCB15459B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -74,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,7 +130,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -281,7 +292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,15 +445,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -471,7 +482,7 @@
         <v>Week: Week 1, Sales: 92808, COGS: 81230.8227540488</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -486,7 +497,7 @@
         <v>Week: Week 2, Sales: 103740, COGS: 32966.5302445238</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -501,7 +512,7 @@
         <v>Week: Week 3, Sales: 92828, COGS: 10560.3870016105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -516,7 +527,7 @@
         <v>Week: Week 4, Sales: 56032, COGS: 51268.6702732669</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -531,7 +542,7 @@
         <v>Week: Week 5, Sales: 83685, COGS: 33203.6565221954</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -546,7 +557,7 @@
         <v>Week: Week 6, Sales: 89271, COGS: 26838.6767996522</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -561,7 +572,7 @@
         <v>Week: Week 7, Sales: 120530, COGS: 79725.7783228259</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -576,7 +587,7 @@
         <v>Week: Week 8, Sales: 81764, COGS: 61115.5607341919</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -591,7 +602,7 @@
         <v>Week: Week 9, Sales: 101728, COGS: 3733.34560276964</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>12</v>
       </c>

--- a/evaluation_examples/examples/sheetcopilot/852527e8-1b97-466c-a12f-b6b095df59bc/9_WeeklySales_gt1.xlsx
+++ b/evaluation_examples/examples/sheetcopilot/852527e8-1b97-466c-a12f-b6b095df59bc/9_WeeklySales_gt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujipqiu/Github/DesktopEnv/evaluation_examples/examples/sheetcopilot/852527e8-1b97-466c-a12f-b6b095df59bc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3C1EE-AE37-2343-977D-19B9BE003834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9502C534-2BFE-F643-BF6B-9DD3F7AC3740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="11560" windowHeight="12360" xr2:uid="{DE390B0A-21FB-4DF8-A5FD-D7DBCB15459B}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -505,11 +505,11 @@
         <v>92828</v>
       </c>
       <c r="C4">
-        <v>10560.387001610548</v>
+        <v>10560.387001610599</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>Week: Week 3, Sales: 92828, COGS: 10560.3870016105</v>
+        <v>Week: Week 3, Sales: 92828, COGS: 10560.3870016106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
